--- a/data/trans_orig/P14B14-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B14-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{972A653F-EEA9-44A0-837B-6B1468666F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2057C349-F08F-4E10-985C-24DC04EF9F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DCEE0433-1638-4869-9957-39D6652374BD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F2A574E-B434-4DDB-944B-9432E177EFF5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="271">
   <si>
     <t>Población cuya fibromialgia le limita en 2012 (Tasa respuesta: 1,41%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>92,02%</t>
   </si>
   <si>
-    <t>63,29%</t>
+    <t>64,95%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>67,33%</t>
+    <t>68,21%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -115,13 +115,13 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>36,71%</t>
+    <t>35,05%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>32,67%</t>
+    <t>31,79%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -148,16 +148,16 @@
     <t>89,37%</t>
   </si>
   <si>
-    <t>68,05%</t>
+    <t>67,87%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
   </si>
   <si>
     <t>45,76%</t>
@@ -166,16 +166,16 @@
     <t>10,63%</t>
   </si>
   <si>
-    <t>31,95%</t>
+    <t>32,13%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -205,16 +205,16 @@
     <t>89,96%</t>
   </si>
   <si>
-    <t>50,51%</t>
+    <t>55,88%</t>
   </si>
   <si>
     <t>74,42%</t>
   </si>
   <si>
-    <t>36,94%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -223,16 +223,16 @@
     <t>10,04%</t>
   </si>
   <si>
-    <t>49,49%</t>
+    <t>44,12%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>63,0%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -241,79 +241,79 @@
     <t>93,95%</t>
   </si>
   <si>
-    <t>78,17%</t>
+    <t>78,36%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>85,02%</t>
+    <t>84,76%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>21,83%</t>
+    <t>21,64%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>14,98%</t>
+    <t>15,24%</t>
   </si>
   <si>
     <t>58,71%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>41,29%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -325,49 +325,49 @@
     <t>92,29%</t>
   </si>
   <si>
-    <t>67,9%</t>
+    <t>67,37%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>65,74%</t>
+    <t>66,15%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>32,1%</t>
+    <t>32,63%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>34,26%</t>
+    <t>33,85%</t>
   </si>
   <si>
     <t>85,64%</t>
   </si>
   <si>
-    <t>57,72%</t>
+    <t>57,42%</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>58,91%</t>
+    <t>59,83%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>42,28%</t>
+    <t>42,58%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>41,09%</t>
+    <t>40,17%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -379,19 +379,19 @@
     <t>88,86%</t>
   </si>
   <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>52,12%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
   </si>
   <si>
     <t>48,91%</t>
@@ -400,19 +400,19 @@
     <t>75,59%</t>
   </si>
   <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>72,22%</t>
   </si>
   <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
   </si>
   <si>
     <t>51,09%</t>
@@ -421,19 +421,19 @@
     <t>24,41%</t>
   </si>
   <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
   </si>
   <si>
     <t>27,78%</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>55,11%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
   </si>
   <si>
     <t>84,2%</t>
@@ -451,139 +451,139 @@
     <t>72,81%</t>
   </si>
   <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
   </si>
   <si>
     <t>66,32%</t>
   </si>
   <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>63,04%</t>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>55,54%</t>
   </si>
   <si>
     <t>33,68%</t>
   </si>
   <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>34,37%</t>
+    <t>33,79%</t>
   </si>
   <si>
     <t>82,99%</t>
   </si>
   <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>83,23%</t>
   </si>
   <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>65,63%</t>
+    <t>66,21%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
   <si>
     <t>Población cuya fibromialgia le limita en 2023 (Tasa respuesta: 3,11%)</t>
@@ -604,37 +604,37 @@
     <t>96,93%</t>
   </si>
   <si>
-    <t>82,67%</t>
+    <t>82,63%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>17,33%</t>
+    <t>17,37%</t>
   </si>
   <si>
     <t>88,01%</t>
   </si>
   <si>
-    <t>40,66%</t>
+    <t>45,05%</t>
   </si>
   <si>
     <t>89,89%</t>
   </si>
   <si>
-    <t>47,56%</t>
+    <t>50,3%</t>
   </si>
   <si>
     <t>11,99%</t>
   </si>
   <si>
-    <t>59,34%</t>
+    <t>54,95%</t>
   </si>
   <si>
     <t>10,11%</t>
   </si>
   <si>
-    <t>52,44%</t>
+    <t>49,7%</t>
   </si>
   <si>
     <t>83,5%</t>
@@ -643,58 +643,64 @@
     <t>95,41%</t>
   </si>
   <si>
-    <t>74,69%</t>
+    <t>75,0%</t>
   </si>
   <si>
     <t>92,09%</t>
   </si>
   <si>
+    <t>69,73%</t>
+  </si>
+  <si>
     <t>16,5%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>25,31%</t>
+    <t>25,0%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
+    <t>30,27%</t>
+  </si>
+  <si>
     <t>60,6%</t>
   </si>
   <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>77,91%</t>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
   </si>
   <si>
     <t>57,93%</t>
   </si>
   <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
+    <t>38,74%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
   </si>
   <si>
     <t>39,4%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
   </si>
   <si>
     <t>42,07%</t>
   </si>
   <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>61,26%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -703,13 +709,13 @@
     <t>87,7%</t>
   </si>
   <si>
-    <t>63,2%</t>
+    <t>64,38%</t>
   </si>
   <si>
     <t>89,69%</t>
   </si>
   <si>
-    <t>65,42%</t>
+    <t>63,51%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -718,58 +724,58 @@
     <t>12,3%</t>
   </si>
   <si>
-    <t>36,8%</t>
+    <t>35,62%</t>
   </si>
   <si>
     <t>10,31%</t>
   </si>
   <si>
-    <t>34,58%</t>
+    <t>36,49%</t>
   </si>
   <si>
     <t>79,38%</t>
   </si>
   <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
+    <t>66,46%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>82,12%</t>
   </si>
   <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
   </si>
   <si>
     <t>20,62%</t>
   </si>
   <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
   </si>
   <si>
     <t>17,88%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
   </si>
   <si>
     <t>66,26%</t>
   </si>
   <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
   </si>
   <si>
     <t>67,61%</t>
@@ -778,22 +784,22 @@
     <t>55,86%</t>
   </si>
   <si>
-    <t>77,5%</t>
+    <t>77,47%</t>
   </si>
   <si>
     <t>33,74%</t>
   </si>
   <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
   </si>
   <si>
     <t>32,39%</t>
   </si>
   <si>
-    <t>22,5%</t>
+    <t>22,53%</t>
   </si>
   <si>
     <t>44,14%</t>
@@ -802,49 +808,49 @@
     <t>92,04%</t>
   </si>
   <si>
-    <t>69,2%</t>
+    <t>73,99%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
   </si>
   <si>
     <t>7,96%</t>
   </si>
   <si>
-    <t>30,8%</t>
+    <t>26,01%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C427098E-A21D-476C-811A-F9B498D3523D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A3087D-5AC3-4F6C-82C7-CBD11A7858BA}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2751,7 +2757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C3DA69-5893-47C5-9AB5-F933064FD5FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A33E9E9-A181-45DF-9425-15C10FF3EDCF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4270,7 +4276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AB63E1-B2B4-4DA1-86D8-2F0249DBC1DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA5079C-9984-4AE4-90A3-B1D7FA1B332B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4886,7 +4892,7 @@
         <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -4904,7 +4910,7 @@
         <v>601</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
@@ -4919,13 +4925,13 @@
         <v>433</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4934,13 +4940,13 @@
         <v>1034</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5023,13 +5029,13 @@
         <v>7603</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5038,13 +5044,13 @@
         <v>7603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5080,13 @@
         <v>4943</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5089,13 +5095,13 @@
         <v>5522</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5166,7 +5172,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -5178,10 +5184,10 @@
         <v>8292</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -5193,10 +5199,10 @@
         <v>10126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -5220,7 +5226,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5229,13 +5235,13 @@
         <v>1163</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5244,13 +5250,13 @@
         <v>1163</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5333,13 +5339,13 @@
         <v>25576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5348,13 +5354,13 @@
         <v>30526</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5384,13 +5390,13 @@
         <v>6645</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -5399,13 +5405,13 @@
         <v>6645</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5488,13 +5494,13 @@
         <v>35122</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -5503,13 +5509,13 @@
         <v>37344</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5539,13 +5545,13 @@
         <v>17888</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -5554,13 +5560,13 @@
         <v>17888</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,10 +5634,10 @@
         <v>13651</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -5643,13 +5649,13 @@
         <v>122262</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M28" s="7">
         <v>217</v>
@@ -5658,13 +5664,13 @@
         <v>135913</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5685,13 @@
         <v>1180</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -5694,13 +5700,13 @@
         <v>32320</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -5709,13 +5715,13 @@
         <v>33500</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B14-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B14-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2057C349-F08F-4E10-985C-24DC04EF9F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EDCFBC4-879F-4400-86C7-CC0AABE5BE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4F2A574E-B434-4DDB-944B-9432E177EFF5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BEA5056C-0C81-4824-A65D-CADE3828FCDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="267">
   <si>
     <t>Población cuya fibromialgia le limita en 2012 (Tasa respuesta: 1,41%)</t>
   </si>
@@ -94,13 +94,13 @@
     <t>92,02%</t>
   </si>
   <si>
-    <t>64,95%</t>
+    <t>65,02%</t>
   </si>
   <si>
     <t>92,63%</t>
   </si>
   <si>
-    <t>68,21%</t>
+    <t>59,68%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -115,13 +115,13 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>35,05%</t>
+    <t>34,98%</t>
   </si>
   <si>
     <t>7,37%</t>
   </si>
   <si>
-    <t>31,79%</t>
+    <t>40,32%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -130,13 +130,13 @@
     <t>80,69%</t>
   </si>
   <si>
-    <t>21,39%</t>
+    <t>20,47%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>78,61%</t>
+    <t>79,53%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -148,16 +148,16 @@
     <t>89,37%</t>
   </si>
   <si>
-    <t>67,87%</t>
+    <t>68,43%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>62,41%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
   </si>
   <si>
     <t>45,76%</t>
@@ -166,16 +166,16 @@
     <t>10,63%</t>
   </si>
   <si>
-    <t>32,13%</t>
+    <t>31,57%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -205,16 +205,16 @@
     <t>89,96%</t>
   </si>
   <si>
-    <t>55,88%</t>
+    <t>55,35%</t>
   </si>
   <si>
     <t>74,42%</t>
   </si>
   <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -223,16 +223,16 @@
     <t>10,04%</t>
   </si>
   <si>
-    <t>44,12%</t>
+    <t>44,65%</t>
   </si>
   <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>63,0%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>58,85%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -241,31 +241,31 @@
     <t>93,95%</t>
   </si>
   <si>
-    <t>78,36%</t>
+    <t>80,16%</t>
   </si>
   <si>
     <t>94,3%</t>
   </si>
   <si>
-    <t>84,76%</t>
+    <t>81,93%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>21,64%</t>
+    <t>19,84%</t>
   </si>
   <si>
     <t>5,7%</t>
   </si>
   <si>
-    <t>15,24%</t>
+    <t>18,07%</t>
   </si>
   <si>
     <t>58,71%</t>
   </si>
   <si>
-    <t>15,14%</t>
+    <t>14,91%</t>
   </si>
   <si>
     <t>87,18%</t>
@@ -274,19 +274,19 @@
     <t>91,13%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>41,29%</t>
@@ -295,79 +295,79 @@
     <t>12,82%</t>
   </si>
   <si>
-    <t>84,86%</t>
+    <t>85,09%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya fibromialgia le limita en 2015 (Tasa respuesta: 1,95%)</t>
+    <t>Población cuya fibromialgia le limita en 2016 (Tasa respuesta: 1,95%)</t>
   </si>
   <si>
     <t>92,29%</t>
   </si>
   <si>
-    <t>67,37%</t>
+    <t>60,28%</t>
   </si>
   <si>
     <t>93,41%</t>
   </si>
   <si>
-    <t>66,15%</t>
+    <t>66,5%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>32,63%</t>
+    <t>39,72%</t>
   </si>
   <si>
     <t>6,59%</t>
   </si>
   <si>
-    <t>33,85%</t>
+    <t>33,5%</t>
   </si>
   <si>
     <t>85,64%</t>
   </si>
   <si>
-    <t>57,42%</t>
+    <t>57,9%</t>
   </si>
   <si>
     <t>86,59%</t>
   </si>
   <si>
-    <t>59,83%</t>
+    <t>59,24%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>42,58%</t>
+    <t>42,1%</t>
   </si>
   <si>
     <t>13,41%</t>
   </si>
   <si>
-    <t>40,17%</t>
+    <t>40,76%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -379,19 +379,19 @@
     <t>88,86%</t>
   </si>
   <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>56,47%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
   </si>
   <si>
     <t>48,91%</t>
@@ -400,190 +400,184 @@
     <t>75,59%</t>
   </si>
   <si>
-    <t>44,19%</t>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
   </si>
   <si>
     <t>92,14%</t>
   </si>
   <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
     <t>51,09%</t>
   </si>
   <si>
     <t>24,41%</t>
   </si>
   <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
     <t>7,86%</t>
   </si>
   <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>55,82%</t>
+    <t>55,25%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>34,54%</t>
+    <t>32,5%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>65,46%</t>
+    <t>67,5%</t>
   </si>
   <si>
     <t>72,81%</t>
   </si>
   <si>
-    <t>44,46%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
+    <t>44,49%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
   </si>
   <si>
     <t>66,32%</t>
   </si>
   <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>27,19%</t>
   </si>
   <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>55,54%</t>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
   </si>
   <si>
     <t>33,68%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
   </si>
   <si>
     <t>85,12%</t>
   </si>
   <si>
-    <t>33,79%</t>
+    <t>34,1%</t>
   </si>
   <si>
     <t>82,99%</t>
   </si>
   <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>83,23%</t>
   </si>
   <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>14,88%</t>
   </si>
   <si>
-    <t>66,21%</t>
+    <t>65,9%</t>
   </si>
   <si>
     <t>17,01%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
   </si>
   <si>
     <t>16,77%</t>
   </si>
   <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
   </si>
   <si>
     <t>Población cuya fibromialgia le limita en 2023 (Tasa respuesta: 3,11%)</t>
@@ -805,9 +799,6 @@
     <t>44,14%</t>
   </si>
   <si>
-    <t>92,04%</t>
-  </si>
-  <si>
     <t>73,99%</t>
   </si>
   <si>
@@ -827,9 +818,6 @@
   </si>
   <si>
     <t>84,68%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
   </si>
   <si>
     <t>26,01%</t>
@@ -1262,7 +1250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A3087D-5AC3-4F6C-82C7-CBD11A7858BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE8207-CCAB-4265-AD6B-4A5C75309F7D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2757,7 +2745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A33E9E9-A181-45DF-9425-15C10FF3EDCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD601AD4-D0CD-4091-A7BA-F27A6462DE62}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3516,7 +3504,7 @@
         <v>120</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -3525,13 +3513,13 @@
         <v>11071</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,7 +3534,7 @@
         <v>989</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>21</v>
@@ -3561,13 +3549,13 @@
         <v>3270</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3576,13 +3564,13 @@
         <v>4259</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3663,10 +3651,10 @@
         <v>5344</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -3678,10 +3666,10 @@
         <v>5344</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3712,13 +3700,13 @@
         <v>1002</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -3727,13 +3715,13 @@
         <v>1002</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3802,13 @@
         <v>8887</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -3829,13 +3817,13 @@
         <v>8887</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3853,13 @@
         <v>3319</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M23" s="7">
         <v>4</v>
@@ -3880,13 +3868,13 @@
         <v>4513</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,10 +3942,10 @@
         <v>5826</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -3969,13 +3957,13 @@
         <v>43445</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -3984,13 +3972,13 @@
         <v>49271</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +3993,13 @@
         <v>1019</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -4020,13 +4008,13 @@
         <v>8908</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>8</v>
@@ -4035,13 +4023,13 @@
         <v>9927</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4109,13 +4097,13 @@
         <v>10846</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>97</v>
@@ -4124,13 +4112,13 @@
         <v>104482</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>107</v>
@@ -4139,13 +4127,13 @@
         <v>115329</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,13 +4148,13 @@
         <v>3202</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H29" s="7">
         <v>18</v>
@@ -4175,13 +4163,13 @@
         <v>20586</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>21</v>
@@ -4190,13 +4178,13 @@
         <v>23787</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4264,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEA5079C-9984-4AE4-90A3-B1D7FA1B332B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF628C70-28C4-48E1-AC1C-230FED94C263}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4293,7 +4281,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4418,7 +4406,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -4433,7 +4421,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -4472,7 +4460,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4487,7 +4475,7 @@
         <v>22</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4568,10 +4556,10 @@
         <v>20507</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>14</v>
@@ -4583,10 +4571,10 @@
         <v>20507</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -4617,13 +4605,13 @@
         <v>650</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4632,13 +4620,13 @@
         <v>650</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4719,10 +4707,10 @@
         <v>4384</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -4734,10 +4722,10 @@
         <v>5314</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -4770,13 +4758,13 @@
         <v>598</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -4785,13 +4773,13 @@
         <v>597</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4859,7 +4847,7 @@
         <v>3043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>21</v>
@@ -4874,10 +4862,10 @@
         <v>8997</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -4889,10 +4877,10 @@
         <v>12040</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -4910,7 +4898,7 @@
         <v>601</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>21</v>
@@ -4925,13 +4913,13 @@
         <v>433</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -4940,13 +4928,13 @@
         <v>1034</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5029,13 +5017,13 @@
         <v>7603</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -5044,13 +5032,13 @@
         <v>7603</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5068,13 @@
         <v>4943</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -5095,13 +5083,13 @@
         <v>5522</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,7 +5160,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -5184,10 +5172,10 @@
         <v>8292</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -5199,10 +5187,10 @@
         <v>10126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -5226,7 +5214,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -5235,13 +5223,13 @@
         <v>1163</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5250,13 +5238,13 @@
         <v>1163</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5339,13 +5327,13 @@
         <v>25576</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -5354,13 +5342,13 @@
         <v>30526</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,13 +5378,13 @@
         <v>6645</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="M23" s="7">
         <v>10</v>
@@ -5405,13 +5393,13 @@
         <v>6645</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5494,13 +5482,13 @@
         <v>35122</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -5509,13 +5497,13 @@
         <v>37344</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5545,13 +5533,13 @@
         <v>17888</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M26" s="7">
         <v>26</v>
@@ -5560,13 +5548,13 @@
         <v>17888</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,10 +5622,10 @@
         <v>13651</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>14</v>
@@ -5649,13 +5637,13 @@
         <v>122262</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M28" s="7">
         <v>217</v>
@@ -5664,13 +5652,13 @@
         <v>135913</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5673,13 @@
         <v>1180</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>263</v>
+        <v>63</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H29" s="7">
         <v>53</v>
@@ -5700,13 +5688,13 @@
         <v>32320</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M29" s="7">
         <v>55</v>
@@ -5715,13 +5703,13 @@
         <v>33500</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
